--- a/pred_ohlcv/54_21/2019-11-02 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 DVP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1899155.275556309</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1899155.275556309</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1899155.275556309</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1899155.275556309</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1895451.906656309</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1933468.832156309</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1932909.206956309</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1932329.168356309</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-2161471.951156309</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-2160971.66375631</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-2131156.221356309</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-2039934.150356309</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-2052967.229356309</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-2052967.229356309</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-2052497.581456309</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2052497.581456309</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2052497.581456309</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2052497.581456309</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2052497.581456309</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2052497.581456309</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-2052497.581456309</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-2179196.169056309</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-2456654.934556309</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-2455284.392656309</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-2501753.583356309</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-2501753.583356309</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-2465492.627256309</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-2424879.055856309</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-2492048.329256309</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-2475279.336456309</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-2475279.336456309</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-2475279.336456309</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-2330308.922255126</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-2178261.863175836</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-2178261.863175836</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-2178261.863175836</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-2123123.327175836</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-2123123.327175836</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-2133123.327175836</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-2133123.327175836</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-2133123.327175836</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-2133123.327175836</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-2133123.327175836</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-928766.172456309</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>2530456.23382167</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>2519983.04342167</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>2242016.08902167</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>2450057.29382167</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>2450057.29382167</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>2450057.29382167</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>2751123.27962167</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>2797841.060921669</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>2797841.060921669</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>3057738.02762167</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>3045669.79002167</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>2927118.07892167</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>2935098.77782167</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>2911567.30172167</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>2911567.30172167</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>2749107.78022167</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>2749107.78022167</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>2749107.78022167</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>3064422.304812879</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>3064422.304812879</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>2960168.383112879</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>2566234.130612879</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>2566244.130612879</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2382229.064712879</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>4552674.747654852</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>4440050.082831682</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>4440050.082831682</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>4088039.435031682</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>4239944.651038561</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>4239944.651038561</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>4252278.474938561</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>4252278.474938561</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>5052253.491556057</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>4276213.909184628</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>3813574.861484628</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>4176800.481484628</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>4106156.559384628</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>4371798.543284629</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>5624655.7938132</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>4772772.808900069</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>3773220.802500069</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>3773220.802500069</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>4011251.372700069</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>3592442.226500069</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>3899771.554100069</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>3899771.554100069</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>3610323.601900069</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>3560372.351400068</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>3375351.217400068</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>3424317.700100068</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>2938133.950000068</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>2873174.750000068</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>2655004.632800068</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>2228760.862300068</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>2237273.249600069</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>2316681.249500069</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>2316681.249500069</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>2182143.872000069</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>2186414.007500069</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>2186414.007500069</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>2170100.905100069</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>2170100.905100069</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-625906.6506471389</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-715789.3065471391</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-715789.3065471391</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-734861.9752471391</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-699925.8872471391</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-840280.1445471391</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-840220.1445471391</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-840220.1445471391</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-840220.1445471391</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-749298.4808471391</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-841833.9295471391</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-857419.8670471391</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-856097.823647139</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-950845.039947139</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-989088.055997139</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-1086760.107297139</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-1087318.178097139</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>489947.472207017</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>489947.472207017</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>489947.472207017</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>346799.737207017</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>178889.330907017</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>478899.330907017</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>807494.515607017</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>965617.638907017</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>1025804.156240864</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>1025804.156240864</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>1297167.681740864</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>1635409.954140864</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>1635409.954140864</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>1446864.829521062</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>1446864.829521062</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>1076707.363721062</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>957210.3923229348</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>957210.3923229348</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>6165052.699647372</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>5181340.944147372</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>3840069.378865891</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>3840069.378865891</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>4355701.150265891</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>4355701.150265891</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>4119892.066665891</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>4119892.066665891</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>3554732.914765891</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>3554732.914765891</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>3554732.914765891</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>3554732.914765891</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>2734392.418265891</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>1479596.443065891</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>2231853.567065891</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>1815317.359565891</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-02 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 DVP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1899155.275556309</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1899155.275556309</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1899155.275556309</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1899155.275556309</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1895451.906656309</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1933468.832156309</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1932909.206956309</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1932329.168356309</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1932329.168356309</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1932329.168356309</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-2026966.278656309</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-2492048.329256309</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-2475279.336456309</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-2475279.336456309</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-2178261.863175836</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-2123123.327175836</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-2123123.327175836</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-2133123.327175836</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-2133123.327175836</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-2133123.327175836</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-2133123.327175836</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-2133123.327175836</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-928766.172456309</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>2530456.23382167</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>2519983.04342167</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>2242016.08902167</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>2450057.29382167</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>2450057.29382167</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>2450057.29382167</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>2751123.27962167</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>2797841.060921669</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>2797841.060921669</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>3057738.02762167</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>3045669.79002167</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>2927118.07892167</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>2935098.77782167</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>2911567.30172167</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>2911567.30172167</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>2749107.78022167</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>2749107.78022167</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>2749107.78022167</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>3064422.304812879</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>3064422.304812879</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>2960168.383112879</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>2566234.130612879</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>2566244.130612879</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2382229.064712879</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>4552674.747654852</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>4440050.082831682</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>4440050.082831682</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>4088039.435031682</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>4239944.651038561</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>4239944.651038561</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>4252278.474938561</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>4252278.474938561</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>5052253.491556057</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>4276213.909184628</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>3813574.861484628</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>4176800.481484628</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>4106156.559384628</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>4371798.543284629</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>5624655.7938132</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>4772772.808900069</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>3773220.802500069</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>3773220.802500069</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>4011251.372700069</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>3592442.226500069</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>3899771.554100069</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>3899771.554100069</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>3610323.601900069</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>3560372.351400068</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>3375351.217400068</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>3424317.700100068</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>2938133.950000068</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>2873174.750000068</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>2655004.632800068</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>2228760.862300068</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>2237273.249600069</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>2316681.249500069</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>2316681.249500069</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>2182143.872000069</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>2186414.007500069</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>2186414.007500069</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>2170100.905100069</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>2170100.905100069</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-625906.6506471389</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-715789.3065471391</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-715789.3065471391</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-734861.9752471391</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-699925.8872471391</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-840280.1445471391</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-840220.1445471391</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-840220.1445471391</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-840220.1445471391</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-749298.4808471391</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-841833.9295471391</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-857419.8670471391</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-856097.823647139</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-950845.039947139</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-989088.055997139</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-1086760.107297139</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-1087318.178097139</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>489947.472207017</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>489947.472207017</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>489947.472207017</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>346799.737207017</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>178889.330907017</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>478899.330907017</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>807494.515607017</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>965617.638907017</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>1025804.156240864</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>1025804.156240864</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>1297167.681740864</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>1635409.954140864</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>1635409.954140864</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>1446864.829521062</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>1446864.829521062</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>1076707.363721062</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>957210.3923229348</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>957210.3923229348</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>4723832.033647371</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>4460130.864847371</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>5374514.839528853</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>6165052.699647372</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>5181340.944147372</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>3840069.378865891</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>3840069.378865891</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>4355701.150265891</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>4355701.150265891</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>4119892.066665891</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>4119892.066665891</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>3554732.914765891</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>3554732.914765891</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>3554732.914765891</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>3554732.914765891</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>2734392.418265891</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>1479596.443065891</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>2231853.567065891</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
